--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value493.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value493.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7387567789909579</v>
+        <v>1.30899965763092</v>
       </c>
       <c r="B1">
-        <v>1.072281768536087</v>
+        <v>3.277969121932983</v>
       </c>
       <c r="C1">
-        <v>2.29398689248815</v>
+        <v>5.700580596923828</v>
       </c>
       <c r="D1">
-        <v>3.933413505111387</v>
+        <v>1.728224158287048</v>
       </c>
       <c r="E1">
-        <v>1.587180744298841</v>
+        <v>1.012715339660645</v>
       </c>
     </row>
   </sheetData>
